--- a/work/DataModel.CaptionEnum.xlsx
+++ b/work/DataModel.CaptionEnum.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\001_FrontReport_Phese1\005_sample_project\Poi_Arbitrary_order\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45BCD08-C4B0-4D90-B3E9-2B122D9F4FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA508E9C-46FE-44E4-A641-F4963D6C45B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="4716" windowWidth="23040" windowHeight="10620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="85">
   <si>
     <t>Column01</t>
   </si>
@@ -44,33 +47,33 @@
   </si>
   <si>
     <t>From</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>To</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Group01_value01</t>
   </si>
   <si>
     <t>Group01_value02</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Group02_value01</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Group02_value02</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>改行</t>
     <rPh sb="0" eb="2">
       <t>カイギョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -91,11 +94,11 @@
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -140,42 +143,42 @@
   </si>
   <si>
     <t>model.getCommon().getId()</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>model.getCommon().getValue()</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>model.getCommon().getFrom()</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>model.getCommon().getTo()</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>model.getGroup01().getValue1()</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>model.getGroup01().getValue2()</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>model.getGroup02().getValue1()</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>model.getGroup02().getValue2()</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>); }</t>
   </si>
   <si>
     <t>); }</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -229,23 +232,601 @@
   </si>
   <si>
     <t>(new StyleModel(FontStyle.MS_Gothic</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">)) { </t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Group03_</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>value01</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> StyleModel(FontStyle.MS_Gothic, DateFormatStyle.None, DefaultBorderStyle.THIN.getBorderStyle())) {</t>
+    </r>
+  </si>
+  <si>
+    <t>改行</t>
+    <rPh sb="0" eb="2">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> get(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DataModel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> model) { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> model.</t>
+    </r>
+  </si>
+  <si>
+    <t>getGroup03().</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>getValue1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(); }</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> setCellValue(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>XSSFCell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cell, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DataModel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> model) { cell.setCellValue(model.</t>
+    </r>
+  </si>
+  <si>
+    <t>()); }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>改行</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>},</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>value02</t>
+  </si>
+  <si>
+    <t>getValue2</t>
+  </si>
+  <si>
+    <t>Group03_</t>
+  </si>
+  <si>
+    <t>value03</t>
+  </si>
+  <si>
+    <t>getGroup03().</t>
+  </si>
+  <si>
+    <t>getValue3</t>
+  </si>
+  <si>
+    <t>value04</t>
+  </si>
+  <si>
+    <t>getValue4</t>
+  </si>
+  <si>
+    <t>value05</t>
+  </si>
+  <si>
+    <t>getValue5</t>
+  </si>
+  <si>
+    <t>value06</t>
+  </si>
+  <si>
+    <t>getValue6</t>
+  </si>
+  <si>
+    <t>value07</t>
+  </si>
+  <si>
+    <t>getValue7</t>
+  </si>
+  <si>
+    <t>value08</t>
+  </si>
+  <si>
+    <t>getValue8</t>
+  </si>
+  <si>
+    <t>value09</t>
+  </si>
+  <si>
+    <t>getValue9</t>
+  </si>
+  <si>
+    <t>value10</t>
+  </si>
+  <si>
+    <t>getValue10</t>
+  </si>
+  <si>
+    <t>value11</t>
+  </si>
+  <si>
+    <t>getValue11</t>
+  </si>
+  <si>
+    <t>value12</t>
+  </si>
+  <si>
+    <t>getValue12</t>
+  </si>
+  <si>
+    <t>};</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>new Group03Model(</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>String.format(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"g03_value1_%d"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,index) ,</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>String.format(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"g03_value2_%d",index) ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>String.format(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"g03_value3_%d",index) ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>String.format(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"g03_value4_%d",index) ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>String.format(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"g03_value5_%d",index) ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>String.format(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"g03_value6_%d",index) ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>String.format(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"g03_value7_%d",index) ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>String.format(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"g03_value8_%d",index) ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>String.format(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"g03_value9_%d",index) ,</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>String.format(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"g03_value10_%d",index) ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>String.format(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"g03_value11_%d",index) ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>String.format(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"g03_value12_%d",index) ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        { "names": [ { "name" : "</t>
+  </si>
+  <si>
+    <t>Gropu03</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"  } , { "name" : "</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  } ] , caption" : "</t>
+  </si>
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">" , visible" : true  , "column_order" : </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> } ,</t>
+  </si>
+  <si>
+    <t>Gropu03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,6 +848,26 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -285,20 +886,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{08EDA086-0916-4258-976B-10A6B35DB719}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -578,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1004,7 +1618,1321 @@
       <c r="B11" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAE378A-F29F-479C-A2B2-5F37DBC350B2}">
+  <dimension ref="A1:T14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="3"/>
+      <c r="C1" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="D14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="5"/>
+      <c r="M14" s="3"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196E6972-DA18-4427-960B-8EF73D5EC302}">
+  <dimension ref="B2:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FDBCDE-A2FA-4144-BCFC-A44AF5BEEC8E}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="D1" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>B2</f>
+        <v>Gropu03</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>D2</f>
+        <v>value01</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="4">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3:F10" si="0">B3</f>
+        <v>Gropu03</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3:H10" si="1">D3</f>
+        <v>value02</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="4">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Gropu03</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>value03</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="4">
+        <v>11</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Gropu03</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>value04</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="4">
+        <v>12</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Gropu03</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>value05</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="4">
+        <v>13</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Gropu03</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>value06</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="4">
+        <v>14</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Gropu03</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>value07</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="4">
+        <v>15</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Gropu03</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>value08</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="4">
+        <v>16</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Gropu03</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>value09</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="4">
+        <v>17</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f>B11</f>
+        <v>Gropu03</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f>D11</f>
+        <v>value10</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="4">
+        <v>18</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f t="shared" ref="F12:F13" si="2">B12</f>
+        <v>Gropu03</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" ref="H12:H13" si="3">D12</f>
+        <v>value11</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="4">
+        <v>19</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f>B13</f>
+        <v>Gropu03</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f>D13</f>
+        <v>value12</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="4">
+        <v>20</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/work/DataModel.CaptionEnum.xlsx
+++ b/work/DataModel.CaptionEnum.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\001_FrontReport_Phese1\005_sample_project\Poi_Arbitrary_order\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA508E9C-46FE-44E4-A641-F4963D6C45B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472BFE36-6D34-473D-A519-1EF64136EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="4716" windowWidth="23040" windowHeight="10620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="json" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="136">
   <si>
     <t>Column01</t>
   </si>
@@ -47,33 +48,33 @@
   </si>
   <si>
     <t>From</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>To</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Group01_value01</t>
   </si>
   <si>
     <t>Group01_value02</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Group02_value01</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Group02_value02</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>改行</t>
     <rPh sb="0" eb="2">
       <t>カイギョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -94,11 +95,11 @@
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -143,42 +144,42 @@
   </si>
   <si>
     <t>model.getCommon().getId()</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>model.getCommon().getValue()</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>model.getCommon().getFrom()</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>model.getCommon().getTo()</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>model.getGroup01().getValue1()</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>model.getGroup01().getValue2()</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>model.getGroup02().getValue1()</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>model.getGroup02().getValue2()</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>); }</t>
   </si>
   <si>
     <t>); }</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -232,19 +233,19 @@
   </si>
   <si>
     <t>(new StyleModel(FontStyle.MS_Gothic</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t xml:space="preserve">)) { </t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Group03_</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>value01</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -274,7 +275,7 @@
     <rPh sb="0" eb="2">
       <t>カイギョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -328,15 +329,15 @@
   </si>
   <si>
     <t>getGroup03().</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>getValue1</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>(); }</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -423,11 +424,11 @@
     <rPh sb="0" eb="2">
       <t>カイギョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>},</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>value02</t>
@@ -503,11 +504,11 @@
   </si>
   <si>
     <t>};</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>new Group03Model(</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -531,7 +532,7 @@
       </rPr>
       <t>,index) ,</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -707,7 +708,7 @@
       </rPr>
       <t>"g03_value9_%d",index) ,</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -785,40 +786,372 @@
   </si>
   <si>
     <t>Gropu03</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>"  } , { "name" : "</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">  } ] , caption" : "</t>
   </si>
   <si>
     <t>_</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">" , visible" : true  , "column_order" : </t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve"> } ,</t>
   </si>
   <si>
     <t>Gropu03</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> StyleModel(</t>
+    </r>
+  </si>
+  <si>
+    <t>Font</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>FontStyle.MS_Gothic</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>new StyleModel</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DateFormatStyle.None</t>
+  </si>
+  <si>
+    <t>DateFormatStyle.Date_YYYYMMDD</t>
+  </si>
+  <si>
+    <t>DateFormatStyle</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BorderStyle</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DefaultBorderStyle.THIN.getBorderStyle()</t>
+  </si>
+  <si>
+    <t>BackgroundColor</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> )) { </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>改行</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>@Override</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>getter</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>get(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DataModel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> model) { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> model</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>半角スペース</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>.getCommon()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>.getFrom()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>; }</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>.getTo()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>.getValue()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>.getGroup01()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>.getGroup03()</t>
+  </si>
+  <si>
+    <t>.getValue1()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>.getValue2()</t>
+  </si>
+  <si>
+    <t>IndexedColors.WHITE.index</t>
+  </si>
+  <si>
+    <t>.getGroup02()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>.getGroup03()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>.getValue3()</t>
+  </si>
+  <si>
+    <t>.getValue4()</t>
+  </si>
+  <si>
+    <t>.getValue5()</t>
+  </si>
+  <si>
+    <t>.getValue6()</t>
+  </si>
+  <si>
+    <t>.getValue7()</t>
+  </si>
+  <si>
+    <t>.getValue8()</t>
+  </si>
+  <si>
+    <t>.getValue9()</t>
+  </si>
+  <si>
+    <t>.getValue10()</t>
+  </si>
+  <si>
+    <t>.getValue11()</t>
+  </si>
+  <si>
+    <t>.getValue12()</t>
+  </si>
+  <si>
+    <t>Model.getter</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>setCellValue</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> setCellValue(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>XSSFCell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cell, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DataModel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> model) { cell.setCellValue(model</t>
+    </r>
+  </si>
+  <si>
+    <t>},</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>.getId()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Group01_</t>
+  </si>
+  <si>
+    <t>Group02_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -868,6 +1201,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -888,26 +1227,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1190,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:Q11"/>
+  <dimension ref="B3:T27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1206,7 +1555,7 @@
     <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:20">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +1606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:20">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1308,7 +1657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:20">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1359,7 +1708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:20">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1410,7 +1759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:20">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1461,7 +1810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:20">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1512,7 +1861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:20">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1563,7 +1912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:20">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1614,17 +1963,2647 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:20">
       <c r="B11" s="1"/>
     </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48CEB7E-BD45-4E92-BBCD-6D123C2D086E}">
+  <dimension ref="B1:AD22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="13" max="13" width="3.875" customWidth="1"/>
+    <col min="14" max="14" width="3.125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="3.125" customWidth="1"/>
+    <col min="19" max="19" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:30">
+      <c r="N1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="W1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="2:30" s="6" customFormat="1" ht="91.5">
+      <c r="D2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="2:30">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z3" t="str">
+        <f>S3</f>
+        <v>.getCommon()</v>
+      </c>
+      <c r="AA3" t="str">
+        <f>T3</f>
+        <v>.getId()</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" ref="Z4:Z22" si="0">S4</f>
+        <v>.getCommon()</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" ref="AA4:AA22" si="1">T4</f>
+        <v>.getValue()</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T5" t="s">
+        <v>108</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" si="0"/>
+        <v>.getCommon()</v>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="1"/>
+        <v>.getFrom()</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T6" t="s">
+        <v>110</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="0"/>
+        <v>.getCommon()</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="1"/>
+        <v>.getTo()</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30">
+      <c r="B7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S7" t="s">
+        <v>112</v>
+      </c>
+      <c r="T7" t="s">
+        <v>114</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="0"/>
+        <v>.getGroup01()</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="1"/>
+        <v>.getValue1()</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30">
+      <c r="B8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S8" t="s">
+        <v>112</v>
+      </c>
+      <c r="T8" t="s">
+        <v>115</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="0"/>
+        <v>.getGroup01()</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="1"/>
+        <v>.getValue2()</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30">
+      <c r="B9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S9" t="s">
+        <v>117</v>
+      </c>
+      <c r="T9" t="s">
+        <v>114</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="0"/>
+        <v>.getGroup02()</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="1"/>
+        <v>.getValue1()</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30">
+      <c r="B10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S10" t="s">
+        <v>117</v>
+      </c>
+      <c r="T10" t="s">
+        <v>115</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="0"/>
+        <v>.getGroup02()</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="1"/>
+        <v>.getValue2()</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30">
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S11" t="s">
+        <v>118</v>
+      </c>
+      <c r="T11" t="s">
+        <v>114</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="0"/>
+        <v>.getGroup03()</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="1"/>
+        <v>.getValue1()</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30">
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S12" t="s">
+        <v>118</v>
+      </c>
+      <c r="T12" t="s">
+        <v>115</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="0"/>
+        <v>.getGroup03()</v>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="1"/>
+        <v>.getValue2()</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30">
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S13" t="s">
+        <v>113</v>
+      </c>
+      <c r="T13" t="s">
+        <v>119</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="0"/>
+        <v>.getGroup03()</v>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="1"/>
+        <v>.getValue3()</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30">
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S14" t="s">
+        <v>113</v>
+      </c>
+      <c r="T14" t="s">
+        <v>120</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="0"/>
+        <v>.getGroup03()</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="1"/>
+        <v>.getValue4()</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30">
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S15" t="s">
+        <v>113</v>
+      </c>
+      <c r="T15" t="s">
+        <v>121</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="0"/>
+        <v>.getGroup03()</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="1"/>
+        <v>.getValue5()</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30">
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S16" t="s">
+        <v>113</v>
+      </c>
+      <c r="T16" t="s">
+        <v>122</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="0"/>
+        <v>.getGroup03()</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="1"/>
+        <v>.getValue6()</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30">
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S17" t="s">
+        <v>113</v>
+      </c>
+      <c r="T17" t="s">
+        <v>123</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="0"/>
+        <v>.getGroup03()</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="1"/>
+        <v>.getValue7()</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30">
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S18" t="s">
+        <v>113</v>
+      </c>
+      <c r="T18" t="s">
+        <v>124</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="0"/>
+        <v>.getGroup03()</v>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="1"/>
+        <v>.getValue8()</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30">
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S19" t="s">
+        <v>113</v>
+      </c>
+      <c r="T19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="0"/>
+        <v>.getGroup03()</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="1"/>
+        <v>.getValue9()</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30">
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S20" t="s">
+        <v>113</v>
+      </c>
+      <c r="T20" t="s">
+        <v>126</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W20" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="0"/>
+        <v>.getGroup03()</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="1"/>
+        <v>.getValue10()</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30">
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S21" t="s">
+        <v>113</v>
+      </c>
+      <c r="T21" t="s">
+        <v>127</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W21" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="0"/>
+        <v>.getGroup03()</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="1"/>
+        <v>.getValue11()</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30">
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S22" t="s">
+        <v>113</v>
+      </c>
+      <c r="T22" t="s">
+        <v>128</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="0"/>
+        <v>.getGroup03()</v>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" si="1"/>
+        <v>.getValue12()</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N1:U1"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAE378A-F29F-479C-A2B2-5F37DBC350B2}">
   <dimension ref="A1:T14"/>
   <sheetViews>
@@ -2379,18 +5358,18 @@
       <c r="T14" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196E6972-DA18-4427-960B-8EF73D5EC302}">
   <dimension ref="B2:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2464,17 +5443,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FDBCDE-A2FA-4144-BCFC-A44AF5BEEC8E}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2874,14 +5853,14 @@
         <v>80</v>
       </c>
       <c r="F12" s="4" t="str">
-        <f t="shared" ref="F12:F13" si="2">B12</f>
+        <f t="shared" ref="F12" si="2">B12</f>
         <v>Gropu03</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H12" s="4" t="str">
-        <f t="shared" ref="H12:H13" si="3">D12</f>
+        <f t="shared" ref="H12" si="3">D12</f>
         <v>value11</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -2932,7 +5911,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
